--- a/documents/schedule_classes_zeromski.xlsx
+++ b/documents/schedule_classes_zeromski.xlsx
@@ -71,7 +71,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -183,6 +183,38 @@
       <right style="medium">
         <color rgb="00000000"/>
       </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
       <top/>
       <bottom style="medium">
         <color rgb="00000000"/>
@@ -209,6 +241,38 @@
       <bottom style="medium">
         <color rgb="00000000"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="00000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="medium">
+        <color rgb="00000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="00000000"/>
+      </bottom>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="00000000"/>
+      </top>
+      <bottom/>
     </border>
     <border>
       <left style="thin">
@@ -308,61 +372,62 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="28" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="27" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -730,7 +795,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2014,6 +2079,30 @@
       <c r="V17" s="17" t="inlineStr"/>
       <c r="W17" s="18" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="B18" s="19" t="n"/>
+      <c r="C18" s="19" t="n"/>
+      <c r="D18" s="19" t="n"/>
+      <c r="E18" s="19" t="n"/>
+      <c r="F18" s="19" t="n"/>
+      <c r="G18" s="19" t="n"/>
+      <c r="H18" s="19" t="n"/>
+      <c r="I18" s="19" t="n"/>
+      <c r="J18" s="19" t="n"/>
+      <c r="K18" s="19" t="n"/>
+      <c r="L18" s="19" t="n"/>
+      <c r="M18" s="19" t="n"/>
+      <c r="N18" s="19" t="n"/>
+      <c r="O18" s="19" t="n"/>
+      <c r="P18" s="19" t="n"/>
+      <c r="Q18" s="19" t="n"/>
+      <c r="R18" s="19" t="n"/>
+      <c r="S18" s="19" t="n"/>
+      <c r="T18" s="19" t="n"/>
+      <c r="U18" s="19" t="n"/>
+      <c r="V18" s="19" t="n"/>
+      <c r="W18" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="D4:W4"/>
@@ -2039,7 +2128,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3401,6 +3490,30 @@
       <c r="V19" s="17" t="inlineStr"/>
       <c r="W19" s="18" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="B20" s="19" t="n"/>
+      <c r="C20" s="19" t="n"/>
+      <c r="D20" s="19" t="n"/>
+      <c r="E20" s="19" t="n"/>
+      <c r="F20" s="19" t="n"/>
+      <c r="G20" s="19" t="n"/>
+      <c r="H20" s="19" t="n"/>
+      <c r="I20" s="19" t="n"/>
+      <c r="J20" s="19" t="n"/>
+      <c r="K20" s="19" t="n"/>
+      <c r="L20" s="19" t="n"/>
+      <c r="M20" s="19" t="n"/>
+      <c r="N20" s="19" t="n"/>
+      <c r="O20" s="19" t="n"/>
+      <c r="P20" s="19" t="n"/>
+      <c r="Q20" s="19" t="n"/>
+      <c r="R20" s="19" t="n"/>
+      <c r="S20" s="19" t="n"/>
+      <c r="T20" s="19" t="n"/>
+      <c r="U20" s="19" t="n"/>
+      <c r="V20" s="19" t="n"/>
+      <c r="W20" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="D4:W4"/>
@@ -3428,7 +3541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4819,48 +4932,72 @@
     </row>
     <row r="19" ht="14.3" customHeight="1">
       <c r="A19" s="2" t="n"/>
-      <c r="B19" s="19" t="n">
+      <c r="B19" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="C19" s="19" t="inlineStr">
+      <c r="C19" s="20" t="inlineStr">
         <is>
           <t>14:55-15:40</t>
         </is>
       </c>
-      <c r="D19" s="20" t="inlineStr">
+      <c r="D19" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="E19" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F19" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G19" s="21" t="n">
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" s="22" t="n">
         <v>102</v>
       </c>
-      <c r="H19" s="20" t="inlineStr"/>
-      <c r="I19" s="20" t="inlineStr"/>
-      <c r="J19" s="20" t="inlineStr"/>
-      <c r="K19" s="21" t="inlineStr"/>
-      <c r="L19" s="20" t="inlineStr"/>
-      <c r="M19" s="20" t="inlineStr"/>
-      <c r="N19" s="20" t="inlineStr"/>
-      <c r="O19" s="21" t="inlineStr"/>
-      <c r="P19" s="20" t="inlineStr"/>
-      <c r="Q19" s="20" t="inlineStr"/>
-      <c r="R19" s="20" t="inlineStr"/>
-      <c r="S19" s="21" t="inlineStr"/>
-      <c r="T19" s="20" t="inlineStr"/>
-      <c r="U19" s="20" t="inlineStr"/>
-      <c r="V19" s="20" t="inlineStr"/>
-      <c r="W19" s="21" t="inlineStr"/>
+      <c r="H19" s="21" t="inlineStr"/>
+      <c r="I19" s="21" t="inlineStr"/>
+      <c r="J19" s="21" t="inlineStr"/>
+      <c r="K19" s="22" t="inlineStr"/>
+      <c r="L19" s="21" t="inlineStr"/>
+      <c r="M19" s="21" t="inlineStr"/>
+      <c r="N19" s="21" t="inlineStr"/>
+      <c r="O19" s="22" t="inlineStr"/>
+      <c r="P19" s="21" t="inlineStr"/>
+      <c r="Q19" s="21" t="inlineStr"/>
+      <c r="R19" s="21" t="inlineStr"/>
+      <c r="S19" s="22" t="inlineStr"/>
+      <c r="T19" s="21" t="inlineStr"/>
+      <c r="U19" s="21" t="inlineStr"/>
+      <c r="V19" s="21" t="inlineStr"/>
+      <c r="W19" s="22" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="19" t="n"/>
+      <c r="C20" s="19" t="n"/>
+      <c r="D20" s="19" t="n"/>
+      <c r="E20" s="19" t="n"/>
+      <c r="F20" s="19" t="n"/>
+      <c r="G20" s="19" t="n"/>
+      <c r="H20" s="19" t="n"/>
+      <c r="I20" s="19" t="n"/>
+      <c r="J20" s="19" t="n"/>
+      <c r="K20" s="19" t="n"/>
+      <c r="L20" s="19" t="n"/>
+      <c r="M20" s="19" t="n"/>
+      <c r="N20" s="19" t="n"/>
+      <c r="O20" s="19" t="n"/>
+      <c r="P20" s="19" t="n"/>
+      <c r="Q20" s="19" t="n"/>
+      <c r="R20" s="19" t="n"/>
+      <c r="S20" s="19" t="n"/>
+      <c r="T20" s="19" t="n"/>
+      <c r="U20" s="19" t="n"/>
+      <c r="V20" s="19" t="n"/>
+      <c r="W20" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -4888,7 +5025,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6324,48 +6461,72 @@
     </row>
     <row r="20" ht="14.3" customHeight="1">
       <c r="A20" s="2" t="n"/>
-      <c r="B20" s="19" t="n">
+      <c r="B20" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="C20" s="19" t="inlineStr">
+      <c r="C20" s="20" t="inlineStr">
         <is>
           <t>14:55-15:40</t>
         </is>
       </c>
-      <c r="D20" s="20" t="inlineStr">
+      <c r="D20" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="E20" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G20" s="21" t="n">
+      <c r="E20" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" s="22" t="n">
         <v>102</v>
       </c>
-      <c r="H20" s="20" t="inlineStr"/>
-      <c r="I20" s="20" t="inlineStr"/>
-      <c r="J20" s="20" t="inlineStr"/>
-      <c r="K20" s="21" t="inlineStr"/>
-      <c r="L20" s="20" t="inlineStr"/>
-      <c r="M20" s="20" t="inlineStr"/>
-      <c r="N20" s="20" t="inlineStr"/>
-      <c r="O20" s="21" t="inlineStr"/>
-      <c r="P20" s="20" t="inlineStr"/>
-      <c r="Q20" s="20" t="inlineStr"/>
-      <c r="R20" s="20" t="inlineStr"/>
-      <c r="S20" s="21" t="inlineStr"/>
-      <c r="T20" s="20" t="inlineStr"/>
-      <c r="U20" s="20" t="inlineStr"/>
-      <c r="V20" s="20" t="inlineStr"/>
-      <c r="W20" s="21" t="inlineStr"/>
+      <c r="H20" s="21" t="inlineStr"/>
+      <c r="I20" s="21" t="inlineStr"/>
+      <c r="J20" s="21" t="inlineStr"/>
+      <c r="K20" s="22" t="inlineStr"/>
+      <c r="L20" s="21" t="inlineStr"/>
+      <c r="M20" s="21" t="inlineStr"/>
+      <c r="N20" s="21" t="inlineStr"/>
+      <c r="O20" s="22" t="inlineStr"/>
+      <c r="P20" s="21" t="inlineStr"/>
+      <c r="Q20" s="21" t="inlineStr"/>
+      <c r="R20" s="21" t="inlineStr"/>
+      <c r="S20" s="22" t="inlineStr"/>
+      <c r="T20" s="21" t="inlineStr"/>
+      <c r="U20" s="21" t="inlineStr"/>
+      <c r="V20" s="21" t="inlineStr"/>
+      <c r="W20" s="22" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="19" t="n"/>
+      <c r="C21" s="19" t="n"/>
+      <c r="D21" s="19" t="n"/>
+      <c r="E21" s="19" t="n"/>
+      <c r="F21" s="19" t="n"/>
+      <c r="G21" s="19" t="n"/>
+      <c r="H21" s="19" t="n"/>
+      <c r="I21" s="19" t="n"/>
+      <c r="J21" s="19" t="n"/>
+      <c r="K21" s="19" t="n"/>
+      <c r="L21" s="19" t="n"/>
+      <c r="M21" s="19" t="n"/>
+      <c r="N21" s="19" t="n"/>
+      <c r="O21" s="19" t="n"/>
+      <c r="P21" s="19" t="n"/>
+      <c r="Q21" s="19" t="n"/>
+      <c r="R21" s="19" t="n"/>
+      <c r="S21" s="19" t="n"/>
+      <c r="T21" s="19" t="n"/>
+      <c r="U21" s="19" t="n"/>
+      <c r="V21" s="19" t="n"/>
+      <c r="W21" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -6394,7 +6555,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7682,6 +7843,30 @@
       <c r="V17" s="17" t="inlineStr"/>
       <c r="W17" s="18" t="inlineStr"/>
     </row>
+    <row r="18">
+      <c r="B18" s="19" t="n"/>
+      <c r="C18" s="19" t="n"/>
+      <c r="D18" s="19" t="n"/>
+      <c r="E18" s="19" t="n"/>
+      <c r="F18" s="19" t="n"/>
+      <c r="G18" s="19" t="n"/>
+      <c r="H18" s="19" t="n"/>
+      <c r="I18" s="19" t="n"/>
+      <c r="J18" s="19" t="n"/>
+      <c r="K18" s="19" t="n"/>
+      <c r="L18" s="19" t="n"/>
+      <c r="M18" s="19" t="n"/>
+      <c r="N18" s="19" t="n"/>
+      <c r="O18" s="19" t="n"/>
+      <c r="P18" s="19" t="n"/>
+      <c r="Q18" s="19" t="n"/>
+      <c r="R18" s="19" t="n"/>
+      <c r="S18" s="19" t="n"/>
+      <c r="T18" s="19" t="n"/>
+      <c r="U18" s="19" t="n"/>
+      <c r="V18" s="19" t="n"/>
+      <c r="W18" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="B9:B10"/>
@@ -7707,7 +7892,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9020,48 +9205,72 @@
     </row>
     <row r="19" ht="14.3" customHeight="1">
       <c r="A19" s="2" t="n"/>
-      <c r="B19" s="19" t="n">
+      <c r="B19" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="C19" s="19" t="inlineStr">
+      <c r="C19" s="20" t="inlineStr">
         <is>
           <t>14:55-15:40</t>
         </is>
       </c>
-      <c r="D19" s="20" t="inlineStr">
+      <c r="D19" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="E19" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F19" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G19" s="21" t="n">
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" s="22" t="n">
         <v>102</v>
       </c>
-      <c r="H19" s="20" t="inlineStr"/>
-      <c r="I19" s="20" t="inlineStr"/>
-      <c r="J19" s="20" t="inlineStr"/>
-      <c r="K19" s="21" t="inlineStr"/>
-      <c r="L19" s="20" t="inlineStr"/>
-      <c r="M19" s="20" t="inlineStr"/>
-      <c r="N19" s="20" t="inlineStr"/>
-      <c r="O19" s="21" t="inlineStr"/>
-      <c r="P19" s="20" t="inlineStr"/>
-      <c r="Q19" s="20" t="inlineStr"/>
-      <c r="R19" s="20" t="inlineStr"/>
-      <c r="S19" s="21" t="inlineStr"/>
-      <c r="T19" s="20" t="inlineStr"/>
-      <c r="U19" s="20" t="inlineStr"/>
-      <c r="V19" s="20" t="inlineStr"/>
-      <c r="W19" s="21" t="inlineStr"/>
+      <c r="H19" s="21" t="inlineStr"/>
+      <c r="I19" s="21" t="inlineStr"/>
+      <c r="J19" s="21" t="inlineStr"/>
+      <c r="K19" s="22" t="inlineStr"/>
+      <c r="L19" s="21" t="inlineStr"/>
+      <c r="M19" s="21" t="inlineStr"/>
+      <c r="N19" s="21" t="inlineStr"/>
+      <c r="O19" s="22" t="inlineStr"/>
+      <c r="P19" s="21" t="inlineStr"/>
+      <c r="Q19" s="21" t="inlineStr"/>
+      <c r="R19" s="21" t="inlineStr"/>
+      <c r="S19" s="22" t="inlineStr"/>
+      <c r="T19" s="21" t="inlineStr"/>
+      <c r="U19" s="21" t="inlineStr"/>
+      <c r="V19" s="21" t="inlineStr"/>
+      <c r="W19" s="22" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="19" t="n"/>
+      <c r="C20" s="19" t="n"/>
+      <c r="D20" s="19" t="n"/>
+      <c r="E20" s="19" t="n"/>
+      <c r="F20" s="19" t="n"/>
+      <c r="G20" s="19" t="n"/>
+      <c r="H20" s="19" t="n"/>
+      <c r="I20" s="19" t="n"/>
+      <c r="J20" s="19" t="n"/>
+      <c r="K20" s="19" t="n"/>
+      <c r="L20" s="19" t="n"/>
+      <c r="M20" s="19" t="n"/>
+      <c r="N20" s="19" t="n"/>
+      <c r="O20" s="19" t="n"/>
+      <c r="P20" s="19" t="n"/>
+      <c r="Q20" s="19" t="n"/>
+      <c r="R20" s="19" t="n"/>
+      <c r="S20" s="19" t="n"/>
+      <c r="T20" s="19" t="n"/>
+      <c r="U20" s="19" t="n"/>
+      <c r="V20" s="19" t="n"/>
+      <c r="W20" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -9089,7 +9298,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10399,6 +10608,30 @@
         </is>
       </c>
     </row>
+    <row r="18">
+      <c r="B18" s="19" t="n"/>
+      <c r="C18" s="19" t="n"/>
+      <c r="D18" s="19" t="n"/>
+      <c r="E18" s="19" t="n"/>
+      <c r="F18" s="19" t="n"/>
+      <c r="G18" s="19" t="n"/>
+      <c r="H18" s="19" t="n"/>
+      <c r="I18" s="19" t="n"/>
+      <c r="J18" s="19" t="n"/>
+      <c r="K18" s="19" t="n"/>
+      <c r="L18" s="19" t="n"/>
+      <c r="M18" s="19" t="n"/>
+      <c r="N18" s="19" t="n"/>
+      <c r="O18" s="19" t="n"/>
+      <c r="P18" s="19" t="n"/>
+      <c r="Q18" s="19" t="n"/>
+      <c r="R18" s="19" t="n"/>
+      <c r="S18" s="19" t="n"/>
+      <c r="T18" s="19" t="n"/>
+      <c r="U18" s="19" t="n"/>
+      <c r="V18" s="19" t="n"/>
+      <c r="W18" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="D4:W4"/>
@@ -10424,7 +10657,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W15"/>
+  <dimension ref="A1:W16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -11532,6 +11765,30 @@
       <c r="V15" s="17" t="inlineStr"/>
       <c r="W15" s="18" t="inlineStr"/>
     </row>
+    <row r="16">
+      <c r="B16" s="19" t="n"/>
+      <c r="C16" s="19" t="n"/>
+      <c r="D16" s="19" t="n"/>
+      <c r="E16" s="19" t="n"/>
+      <c r="F16" s="19" t="n"/>
+      <c r="G16" s="19" t="n"/>
+      <c r="H16" s="19" t="n"/>
+      <c r="I16" s="19" t="n"/>
+      <c r="J16" s="19" t="n"/>
+      <c r="K16" s="19" t="n"/>
+      <c r="L16" s="19" t="n"/>
+      <c r="M16" s="19" t="n"/>
+      <c r="N16" s="19" t="n"/>
+      <c r="O16" s="19" t="n"/>
+      <c r="P16" s="19" t="n"/>
+      <c r="Q16" s="19" t="n"/>
+      <c r="R16" s="19" t="n"/>
+      <c r="S16" s="19" t="n"/>
+      <c r="T16" s="19" t="n"/>
+      <c r="U16" s="19" t="n"/>
+      <c r="V16" s="19" t="n"/>
+      <c r="W16" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
     <mergeCell ref="B9:B10"/>
@@ -11555,7 +11812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12845,50 +13102,74 @@
     </row>
     <row r="20" ht="14.3" customHeight="1">
       <c r="A20" s="2" t="n"/>
-      <c r="B20" s="19" t="n">
+      <c r="B20" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="C20" s="19" t="inlineStr">
+      <c r="C20" s="20" t="inlineStr">
         <is>
           <t>14:55-15:40</t>
         </is>
       </c>
-      <c r="D20" s="20" t="inlineStr"/>
-      <c r="E20" s="20" t="inlineStr"/>
-      <c r="F20" s="20" t="inlineStr"/>
-      <c r="G20" s="21" t="inlineStr"/>
-      <c r="H20" s="20" t="inlineStr"/>
-      <c r="I20" s="20" t="inlineStr"/>
-      <c r="J20" s="20" t="inlineStr"/>
-      <c r="K20" s="21" t="inlineStr"/>
-      <c r="L20" s="20" t="inlineStr">
+      <c r="D20" s="21" t="inlineStr"/>
+      <c r="E20" s="21" t="inlineStr"/>
+      <c r="F20" s="21" t="inlineStr"/>
+      <c r="G20" s="22" t="inlineStr"/>
+      <c r="H20" s="21" t="inlineStr"/>
+      <c r="I20" s="21" t="inlineStr"/>
+      <c r="J20" s="21" t="inlineStr"/>
+      <c r="K20" s="22" t="inlineStr"/>
+      <c r="L20" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="M20" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N20" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O20" s="21" t="inlineStr">
+      <c r="M20" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N20" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O20" s="22" t="inlineStr">
         <is>
           <t>O4</t>
         </is>
       </c>
-      <c r="P20" s="20" t="inlineStr"/>
-      <c r="Q20" s="20" t="inlineStr"/>
-      <c r="R20" s="20" t="inlineStr"/>
-      <c r="S20" s="21" t="inlineStr"/>
-      <c r="T20" s="20" t="inlineStr"/>
-      <c r="U20" s="20" t="inlineStr"/>
-      <c r="V20" s="20" t="inlineStr"/>
-      <c r="W20" s="21" t="inlineStr"/>
+      <c r="P20" s="21" t="inlineStr"/>
+      <c r="Q20" s="21" t="inlineStr"/>
+      <c r="R20" s="21" t="inlineStr"/>
+      <c r="S20" s="22" t="inlineStr"/>
+      <c r="T20" s="21" t="inlineStr"/>
+      <c r="U20" s="21" t="inlineStr"/>
+      <c r="V20" s="21" t="inlineStr"/>
+      <c r="W20" s="22" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="19" t="n"/>
+      <c r="C21" s="19" t="n"/>
+      <c r="D21" s="19" t="n"/>
+      <c r="E21" s="19" t="n"/>
+      <c r="F21" s="19" t="n"/>
+      <c r="G21" s="19" t="n"/>
+      <c r="H21" s="19" t="n"/>
+      <c r="I21" s="19" t="n"/>
+      <c r="J21" s="19" t="n"/>
+      <c r="K21" s="19" t="n"/>
+      <c r="L21" s="19" t="n"/>
+      <c r="M21" s="19" t="n"/>
+      <c r="N21" s="19" t="n"/>
+      <c r="O21" s="19" t="n"/>
+      <c r="P21" s="19" t="n"/>
+      <c r="Q21" s="19" t="n"/>
+      <c r="R21" s="19" t="n"/>
+      <c r="S21" s="19" t="n"/>
+      <c r="T21" s="19" t="n"/>
+      <c r="U21" s="19" t="n"/>
+      <c r="V21" s="19" t="n"/>
+      <c r="W21" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -12917,7 +13198,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14117,50 +14398,74 @@
     </row>
     <row r="18" ht="14.3" customHeight="1">
       <c r="A18" s="2" t="n"/>
-      <c r="B18" s="19" t="n">
+      <c r="B18" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="C18" s="19" t="inlineStr">
+      <c r="C18" s="20" t="inlineStr">
         <is>
           <t>14:55-15:40</t>
         </is>
       </c>
-      <c r="D18" s="20" t="inlineStr"/>
-      <c r="E18" s="20" t="inlineStr"/>
-      <c r="F18" s="20" t="inlineStr"/>
-      <c r="G18" s="21" t="inlineStr"/>
-      <c r="H18" s="20" t="inlineStr"/>
-      <c r="I18" s="20" t="inlineStr"/>
-      <c r="J18" s="20" t="inlineStr"/>
-      <c r="K18" s="21" t="inlineStr"/>
-      <c r="L18" s="20" t="inlineStr">
+      <c r="D18" s="21" t="inlineStr"/>
+      <c r="E18" s="21" t="inlineStr"/>
+      <c r="F18" s="21" t="inlineStr"/>
+      <c r="G18" s="22" t="inlineStr"/>
+      <c r="H18" s="21" t="inlineStr"/>
+      <c r="I18" s="21" t="inlineStr"/>
+      <c r="J18" s="21" t="inlineStr"/>
+      <c r="K18" s="22" t="inlineStr"/>
+      <c r="L18" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="M18" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="N18" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="O18" s="21" t="inlineStr">
+      <c r="M18" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="N18" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="O18" s="22" t="inlineStr">
         <is>
           <t>O4</t>
         </is>
       </c>
-      <c r="P18" s="20" t="inlineStr"/>
-      <c r="Q18" s="20" t="inlineStr"/>
-      <c r="R18" s="20" t="inlineStr"/>
-      <c r="S18" s="21" t="inlineStr"/>
-      <c r="T18" s="20" t="inlineStr"/>
-      <c r="U18" s="20" t="inlineStr"/>
-      <c r="V18" s="20" t="inlineStr"/>
-      <c r="W18" s="21" t="inlineStr"/>
+      <c r="P18" s="21" t="inlineStr"/>
+      <c r="Q18" s="21" t="inlineStr"/>
+      <c r="R18" s="21" t="inlineStr"/>
+      <c r="S18" s="22" t="inlineStr"/>
+      <c r="T18" s="21" t="inlineStr"/>
+      <c r="U18" s="21" t="inlineStr"/>
+      <c r="V18" s="21" t="inlineStr"/>
+      <c r="W18" s="22" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="B19" s="19" t="n"/>
+      <c r="C19" s="19" t="n"/>
+      <c r="D19" s="19" t="n"/>
+      <c r="E19" s="19" t="n"/>
+      <c r="F19" s="19" t="n"/>
+      <c r="G19" s="19" t="n"/>
+      <c r="H19" s="19" t="n"/>
+      <c r="I19" s="19" t="n"/>
+      <c r="J19" s="19" t="n"/>
+      <c r="K19" s="19" t="n"/>
+      <c r="L19" s="19" t="n"/>
+      <c r="M19" s="19" t="n"/>
+      <c r="N19" s="19" t="n"/>
+      <c r="O19" s="19" t="n"/>
+      <c r="P19" s="19" t="n"/>
+      <c r="Q19" s="19" t="n"/>
+      <c r="R19" s="19" t="n"/>
+      <c r="S19" s="19" t="n"/>
+      <c r="T19" s="19" t="n"/>
+      <c r="U19" s="19" t="n"/>
+      <c r="V19" s="19" t="n"/>
+      <c r="W19" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -14187,7 +14492,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W17"/>
+  <dimension ref="A1:W18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15310,76 +15615,100 @@
     </row>
     <row r="17" ht="14.3" customHeight="1">
       <c r="A17" s="2" t="n"/>
-      <c r="B17" s="19" t="n">
+      <c r="B17" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="C17" s="19" t="inlineStr">
+      <c r="C17" s="20" t="inlineStr">
         <is>
           <t>13:15-14:00</t>
         </is>
       </c>
-      <c r="D17" s="20" t="inlineStr">
+      <c r="D17" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="E17" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F17" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G17" s="21" t="n">
+      <c r="E17" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F17" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G17" s="22" t="n">
         <v>102</v>
       </c>
-      <c r="H17" s="20" t="inlineStr"/>
-      <c r="I17" s="20" t="inlineStr"/>
-      <c r="J17" s="20" t="inlineStr"/>
-      <c r="K17" s="21" t="inlineStr"/>
-      <c r="L17" s="20" t="inlineStr"/>
-      <c r="M17" s="20" t="inlineStr"/>
-      <c r="N17" s="20" t="inlineStr"/>
-      <c r="O17" s="21" t="inlineStr"/>
-      <c r="P17" s="20" t="inlineStr">
+      <c r="H17" s="21" t="inlineStr"/>
+      <c r="I17" s="21" t="inlineStr"/>
+      <c r="J17" s="21" t="inlineStr"/>
+      <c r="K17" s="22" t="inlineStr"/>
+      <c r="L17" s="21" t="inlineStr"/>
+      <c r="M17" s="21" t="inlineStr"/>
+      <c r="N17" s="21" t="inlineStr"/>
+      <c r="O17" s="22" t="inlineStr"/>
+      <c r="P17" s="21" t="inlineStr">
         <is>
           <t>j.francuski</t>
         </is>
       </c>
-      <c r="Q17" s="20" t="inlineStr">
+      <c r="Q17" s="21" t="inlineStr">
         <is>
           <t>1/2</t>
         </is>
       </c>
-      <c r="R17" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="S17" s="21" t="n">
+      <c r="R17" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="S17" s="22" t="n">
         <v>5</v>
       </c>
-      <c r="T17" s="20" t="inlineStr">
+      <c r="T17" s="21" t="inlineStr">
         <is>
           <t>matematyka</t>
         </is>
       </c>
-      <c r="U17" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="V17" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="W17" s="21" t="n">
+      <c r="U17" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="V17" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="W17" s="22" t="n">
         <v>6</v>
       </c>
+    </row>
+    <row r="18">
+      <c r="B18" s="19" t="n"/>
+      <c r="C18" s="19" t="n"/>
+      <c r="D18" s="19" t="n"/>
+      <c r="E18" s="19" t="n"/>
+      <c r="F18" s="19" t="n"/>
+      <c r="G18" s="19" t="n"/>
+      <c r="H18" s="19" t="n"/>
+      <c r="I18" s="19" t="n"/>
+      <c r="J18" s="19" t="n"/>
+      <c r="K18" s="19" t="n"/>
+      <c r="L18" s="19" t="n"/>
+      <c r="M18" s="19" t="n"/>
+      <c r="N18" s="19" t="n"/>
+      <c r="O18" s="19" t="n"/>
+      <c r="P18" s="19" t="n"/>
+      <c r="Q18" s="19" t="n"/>
+      <c r="R18" s="19" t="n"/>
+      <c r="S18" s="19" t="n"/>
+      <c r="T18" s="19" t="n"/>
+      <c r="U18" s="19" t="n"/>
+      <c r="V18" s="19" t="n"/>
+      <c r="W18" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -15407,7 +15736,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16733,6 +17062,30 @@
       <c r="V19" s="17" t="inlineStr"/>
       <c r="W19" s="18" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="B20" s="19" t="n"/>
+      <c r="C20" s="19" t="n"/>
+      <c r="D20" s="19" t="n"/>
+      <c r="E20" s="19" t="n"/>
+      <c r="F20" s="19" t="n"/>
+      <c r="G20" s="19" t="n"/>
+      <c r="H20" s="19" t="n"/>
+      <c r="I20" s="19" t="n"/>
+      <c r="J20" s="19" t="n"/>
+      <c r="K20" s="19" t="n"/>
+      <c r="L20" s="19" t="n"/>
+      <c r="M20" s="19" t="n"/>
+      <c r="N20" s="19" t="n"/>
+      <c r="O20" s="19" t="n"/>
+      <c r="P20" s="19" t="n"/>
+      <c r="Q20" s="19" t="n"/>
+      <c r="R20" s="19" t="n"/>
+      <c r="S20" s="19" t="n"/>
+      <c r="T20" s="19" t="n"/>
+      <c r="U20" s="19" t="n"/>
+      <c r="V20" s="19" t="n"/>
+      <c r="W20" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="B9:B10"/>
@@ -16760,7 +17113,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -18168,50 +18521,74 @@
     </row>
     <row r="20" ht="14.3" customHeight="1">
       <c r="A20" s="2" t="n"/>
-      <c r="B20" s="19" t="n">
+      <c r="B20" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="C20" s="19" t="inlineStr">
+      <c r="C20" s="20" t="inlineStr">
         <is>
           <t>14:55-15:40</t>
         </is>
       </c>
-      <c r="D20" s="20" t="inlineStr"/>
-      <c r="E20" s="20" t="inlineStr"/>
-      <c r="F20" s="20" t="inlineStr"/>
-      <c r="G20" s="21" t="inlineStr"/>
-      <c r="H20" s="20" t="inlineStr">
+      <c r="D20" s="21" t="inlineStr"/>
+      <c r="E20" s="21" t="inlineStr"/>
+      <c r="F20" s="21" t="inlineStr"/>
+      <c r="G20" s="22" t="inlineStr"/>
+      <c r="H20" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="I20" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J20" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K20" s="21" t="inlineStr">
+      <c r="I20" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" s="22" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="L20" s="20" t="inlineStr"/>
-      <c r="M20" s="20" t="inlineStr"/>
-      <c r="N20" s="20" t="inlineStr"/>
-      <c r="O20" s="21" t="inlineStr"/>
-      <c r="P20" s="20" t="inlineStr"/>
-      <c r="Q20" s="20" t="inlineStr"/>
-      <c r="R20" s="20" t="inlineStr"/>
-      <c r="S20" s="21" t="inlineStr"/>
-      <c r="T20" s="20" t="inlineStr"/>
-      <c r="U20" s="20" t="inlineStr"/>
-      <c r="V20" s="20" t="inlineStr"/>
-      <c r="W20" s="21" t="inlineStr"/>
+      <c r="L20" s="21" t="inlineStr"/>
+      <c r="M20" s="21" t="inlineStr"/>
+      <c r="N20" s="21" t="inlineStr"/>
+      <c r="O20" s="22" t="inlineStr"/>
+      <c r="P20" s="21" t="inlineStr"/>
+      <c r="Q20" s="21" t="inlineStr"/>
+      <c r="R20" s="21" t="inlineStr"/>
+      <c r="S20" s="22" t="inlineStr"/>
+      <c r="T20" s="21" t="inlineStr"/>
+      <c r="U20" s="21" t="inlineStr"/>
+      <c r="V20" s="21" t="inlineStr"/>
+      <c r="W20" s="22" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="19" t="n"/>
+      <c r="C21" s="19" t="n"/>
+      <c r="D21" s="19" t="n"/>
+      <c r="E21" s="19" t="n"/>
+      <c r="F21" s="19" t="n"/>
+      <c r="G21" s="19" t="n"/>
+      <c r="H21" s="19" t="n"/>
+      <c r="I21" s="19" t="n"/>
+      <c r="J21" s="19" t="n"/>
+      <c r="K21" s="19" t="n"/>
+      <c r="L21" s="19" t="n"/>
+      <c r="M21" s="19" t="n"/>
+      <c r="N21" s="19" t="n"/>
+      <c r="O21" s="19" t="n"/>
+      <c r="P21" s="19" t="n"/>
+      <c r="Q21" s="19" t="n"/>
+      <c r="R21" s="19" t="n"/>
+      <c r="S21" s="19" t="n"/>
+      <c r="T21" s="19" t="n"/>
+      <c r="U21" s="19" t="n"/>
+      <c r="V21" s="19" t="n"/>
+      <c r="W21" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -18240,7 +18617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -19666,50 +20043,74 @@
     </row>
     <row r="20" ht="14.3" customHeight="1">
       <c r="A20" s="2" t="n"/>
-      <c r="B20" s="19" t="n">
+      <c r="B20" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="C20" s="19" t="inlineStr">
+      <c r="C20" s="20" t="inlineStr">
         <is>
           <t>14:55-15:40</t>
         </is>
       </c>
-      <c r="D20" s="20" t="inlineStr">
+      <c r="D20" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="E20" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F20" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G20" s="21" t="inlineStr">
+      <c r="E20" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F20" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G20" s="22" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="H20" s="20" t="inlineStr"/>
-      <c r="I20" s="20" t="inlineStr"/>
-      <c r="J20" s="20" t="inlineStr"/>
-      <c r="K20" s="21" t="inlineStr"/>
-      <c r="L20" s="20" t="inlineStr"/>
-      <c r="M20" s="20" t="inlineStr"/>
-      <c r="N20" s="20" t="inlineStr"/>
-      <c r="O20" s="21" t="inlineStr"/>
-      <c r="P20" s="20" t="inlineStr"/>
-      <c r="Q20" s="20" t="inlineStr"/>
-      <c r="R20" s="20" t="inlineStr"/>
-      <c r="S20" s="21" t="inlineStr"/>
-      <c r="T20" s="20" t="inlineStr"/>
-      <c r="U20" s="20" t="inlineStr"/>
-      <c r="V20" s="20" t="inlineStr"/>
-      <c r="W20" s="21" t="inlineStr"/>
+      <c r="H20" s="21" t="inlineStr"/>
+      <c r="I20" s="21" t="inlineStr"/>
+      <c r="J20" s="21" t="inlineStr"/>
+      <c r="K20" s="22" t="inlineStr"/>
+      <c r="L20" s="21" t="inlineStr"/>
+      <c r="M20" s="21" t="inlineStr"/>
+      <c r="N20" s="21" t="inlineStr"/>
+      <c r="O20" s="22" t="inlineStr"/>
+      <c r="P20" s="21" t="inlineStr"/>
+      <c r="Q20" s="21" t="inlineStr"/>
+      <c r="R20" s="21" t="inlineStr"/>
+      <c r="S20" s="22" t="inlineStr"/>
+      <c r="T20" s="21" t="inlineStr"/>
+      <c r="U20" s="21" t="inlineStr"/>
+      <c r="V20" s="21" t="inlineStr"/>
+      <c r="W20" s="22" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="19" t="n"/>
+      <c r="C21" s="19" t="n"/>
+      <c r="D21" s="19" t="n"/>
+      <c r="E21" s="19" t="n"/>
+      <c r="F21" s="19" t="n"/>
+      <c r="G21" s="19" t="n"/>
+      <c r="H21" s="19" t="n"/>
+      <c r="I21" s="19" t="n"/>
+      <c r="J21" s="19" t="n"/>
+      <c r="K21" s="19" t="n"/>
+      <c r="L21" s="19" t="n"/>
+      <c r="M21" s="19" t="n"/>
+      <c r="N21" s="19" t="n"/>
+      <c r="O21" s="19" t="n"/>
+      <c r="P21" s="19" t="n"/>
+      <c r="Q21" s="19" t="n"/>
+      <c r="R21" s="19" t="n"/>
+      <c r="S21" s="19" t="n"/>
+      <c r="T21" s="19" t="n"/>
+      <c r="U21" s="19" t="n"/>
+      <c r="V21" s="19" t="n"/>
+      <c r="W21" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
@@ -19738,7 +20139,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -21184,6 +21585,30 @@
       <c r="V19" s="17" t="inlineStr"/>
       <c r="W19" s="18" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="B20" s="19" t="n"/>
+      <c r="C20" s="19" t="n"/>
+      <c r="D20" s="19" t="n"/>
+      <c r="E20" s="19" t="n"/>
+      <c r="F20" s="19" t="n"/>
+      <c r="G20" s="19" t="n"/>
+      <c r="H20" s="19" t="n"/>
+      <c r="I20" s="19" t="n"/>
+      <c r="J20" s="19" t="n"/>
+      <c r="K20" s="19" t="n"/>
+      <c r="L20" s="19" t="n"/>
+      <c r="M20" s="19" t="n"/>
+      <c r="N20" s="19" t="n"/>
+      <c r="O20" s="19" t="n"/>
+      <c r="P20" s="19" t="n"/>
+      <c r="Q20" s="19" t="n"/>
+      <c r="R20" s="19" t="n"/>
+      <c r="S20" s="19" t="n"/>
+      <c r="T20" s="19" t="n"/>
+      <c r="U20" s="19" t="n"/>
+      <c r="V20" s="19" t="n"/>
+      <c r="W20" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="B9:B10"/>
@@ -21211,7 +21636,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -22576,50 +23001,74 @@
     </row>
     <row r="19" ht="14.3" customHeight="1">
       <c r="A19" s="2" t="n"/>
-      <c r="B19" s="19" t="n">
+      <c r="B19" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="C19" s="19" t="inlineStr">
+      <c r="C19" s="20" t="inlineStr">
         <is>
           <t>14:55-15:40</t>
         </is>
       </c>
-      <c r="D19" s="20" t="inlineStr">
+      <c r="D19" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="E19" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="F19" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G19" s="21" t="inlineStr">
+      <c r="E19" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F19" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="G19" s="22" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="H19" s="20" t="inlineStr"/>
-      <c r="I19" s="20" t="inlineStr"/>
-      <c r="J19" s="20" t="inlineStr"/>
-      <c r="K19" s="21" t="inlineStr"/>
-      <c r="L19" s="20" t="inlineStr"/>
-      <c r="M19" s="20" t="inlineStr"/>
-      <c r="N19" s="20" t="inlineStr"/>
-      <c r="O19" s="21" t="inlineStr"/>
-      <c r="P19" s="20" t="inlineStr"/>
-      <c r="Q19" s="20" t="inlineStr"/>
-      <c r="R19" s="20" t="inlineStr"/>
-      <c r="S19" s="21" t="inlineStr"/>
-      <c r="T19" s="20" t="inlineStr"/>
-      <c r="U19" s="20" t="inlineStr"/>
-      <c r="V19" s="20" t="inlineStr"/>
-      <c r="W19" s="21" t="inlineStr"/>
+      <c r="H19" s="21" t="inlineStr"/>
+      <c r="I19" s="21" t="inlineStr"/>
+      <c r="J19" s="21" t="inlineStr"/>
+      <c r="K19" s="22" t="inlineStr"/>
+      <c r="L19" s="21" t="inlineStr"/>
+      <c r="M19" s="21" t="inlineStr"/>
+      <c r="N19" s="21" t="inlineStr"/>
+      <c r="O19" s="22" t="inlineStr"/>
+      <c r="P19" s="21" t="inlineStr"/>
+      <c r="Q19" s="21" t="inlineStr"/>
+      <c r="R19" s="21" t="inlineStr"/>
+      <c r="S19" s="22" t="inlineStr"/>
+      <c r="T19" s="21" t="inlineStr"/>
+      <c r="U19" s="21" t="inlineStr"/>
+      <c r="V19" s="21" t="inlineStr"/>
+      <c r="W19" s="22" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="B20" s="19" t="n"/>
+      <c r="C20" s="19" t="n"/>
+      <c r="D20" s="19" t="n"/>
+      <c r="E20" s="19" t="n"/>
+      <c r="F20" s="19" t="n"/>
+      <c r="G20" s="19" t="n"/>
+      <c r="H20" s="19" t="n"/>
+      <c r="I20" s="19" t="n"/>
+      <c r="J20" s="19" t="n"/>
+      <c r="K20" s="19" t="n"/>
+      <c r="L20" s="19" t="n"/>
+      <c r="M20" s="19" t="n"/>
+      <c r="N20" s="19" t="n"/>
+      <c r="O20" s="19" t="n"/>
+      <c r="P20" s="19" t="n"/>
+      <c r="Q20" s="19" t="n"/>
+      <c r="R20" s="19" t="n"/>
+      <c r="S20" s="19" t="n"/>
+      <c r="T20" s="19" t="n"/>
+      <c r="U20" s="19" t="n"/>
+      <c r="V20" s="19" t="n"/>
+      <c r="W20" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="13">
@@ -22647,7 +23096,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W19"/>
+  <dimension ref="A1:W20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -24057,6 +24506,30 @@
       <c r="V19" s="17" t="inlineStr"/>
       <c r="W19" s="18" t="inlineStr"/>
     </row>
+    <row r="20">
+      <c r="B20" s="19" t="n"/>
+      <c r="C20" s="19" t="n"/>
+      <c r="D20" s="19" t="n"/>
+      <c r="E20" s="19" t="n"/>
+      <c r="F20" s="19" t="n"/>
+      <c r="G20" s="19" t="n"/>
+      <c r="H20" s="19" t="n"/>
+      <c r="I20" s="19" t="n"/>
+      <c r="J20" s="19" t="n"/>
+      <c r="K20" s="19" t="n"/>
+      <c r="L20" s="19" t="n"/>
+      <c r="M20" s="19" t="n"/>
+      <c r="N20" s="19" t="n"/>
+      <c r="O20" s="19" t="n"/>
+      <c r="P20" s="19" t="n"/>
+      <c r="Q20" s="19" t="n"/>
+      <c r="R20" s="19" t="n"/>
+      <c r="S20" s="19" t="n"/>
+      <c r="T20" s="19" t="n"/>
+      <c r="U20" s="19" t="n"/>
+      <c r="V20" s="19" t="n"/>
+      <c r="W20" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
     <mergeCell ref="D4:W4"/>
@@ -24084,7 +24557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W18"/>
+  <dimension ref="A1:W19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -25509,6 +25982,30 @@
       <c r="V18" s="17" t="inlineStr"/>
       <c r="W18" s="18" t="inlineStr"/>
     </row>
+    <row r="19">
+      <c r="B19" s="19" t="n"/>
+      <c r="C19" s="19" t="n"/>
+      <c r="D19" s="19" t="n"/>
+      <c r="E19" s="19" t="n"/>
+      <c r="F19" s="19" t="n"/>
+      <c r="G19" s="19" t="n"/>
+      <c r="H19" s="19" t="n"/>
+      <c r="I19" s="19" t="n"/>
+      <c r="J19" s="19" t="n"/>
+      <c r="K19" s="19" t="n"/>
+      <c r="L19" s="19" t="n"/>
+      <c r="M19" s="19" t="n"/>
+      <c r="N19" s="19" t="n"/>
+      <c r="O19" s="19" t="n"/>
+      <c r="P19" s="19" t="n"/>
+      <c r="Q19" s="19" t="n"/>
+      <c r="R19" s="19" t="n"/>
+      <c r="S19" s="19" t="n"/>
+      <c r="T19" s="19" t="n"/>
+      <c r="U19" s="19" t="n"/>
+      <c r="V19" s="19" t="n"/>
+      <c r="W19" s="19" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="13">
     <mergeCell ref="D4:W4"/>
@@ -25535,7 +26032,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W20"/>
+  <dimension ref="A1:W21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -26959,50 +27456,74 @@
     </row>
     <row r="20" ht="14.3" customHeight="1">
       <c r="A20" s="2" t="n"/>
-      <c r="B20" s="19" t="n">
+      <c r="B20" s="20" t="n">
         <v>9</v>
       </c>
-      <c r="C20" s="19" t="inlineStr">
+      <c r="C20" s="20" t="inlineStr">
         <is>
           <t>14:55-15:40</t>
         </is>
       </c>
-      <c r="D20" s="20" t="inlineStr"/>
-      <c r="E20" s="20" t="inlineStr"/>
-      <c r="F20" s="20" t="inlineStr"/>
-      <c r="G20" s="21" t="inlineStr"/>
-      <c r="H20" s="20" t="inlineStr">
+      <c r="D20" s="21" t="inlineStr"/>
+      <c r="E20" s="21" t="inlineStr"/>
+      <c r="F20" s="21" t="inlineStr"/>
+      <c r="G20" s="22" t="inlineStr"/>
+      <c r="H20" s="21" t="inlineStr">
         <is>
           <t>religia</t>
         </is>
       </c>
-      <c r="I20" s="20" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="J20" s="20" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K20" s="21" t="inlineStr">
+      <c r="I20" s="21" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="J20" s="21" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="K20" s="22" t="inlineStr">
         <is>
           <t>O2</t>
         </is>
       </c>
-      <c r="L20" s="20" t="inlineStr"/>
-      <c r="M20" s="20" t="inlineStr"/>
-      <c r="N20" s="20" t="inlineStr"/>
-      <c r="O20" s="21" t="inlineStr"/>
-      <c r="P20" s="20" t="inlineStr"/>
-      <c r="Q20" s="20" t="inlineStr"/>
-      <c r="R20" s="20" t="inlineStr"/>
-      <c r="S20" s="21" t="inlineStr"/>
-      <c r="T20" s="20" t="inlineStr"/>
-      <c r="U20" s="20" t="inlineStr"/>
-      <c r="V20" s="20" t="inlineStr"/>
-      <c r="W20" s="21" t="inlineStr"/>
+      <c r="L20" s="21" t="inlineStr"/>
+      <c r="M20" s="21" t="inlineStr"/>
+      <c r="N20" s="21" t="inlineStr"/>
+      <c r="O20" s="22" t="inlineStr"/>
+      <c r="P20" s="21" t="inlineStr"/>
+      <c r="Q20" s="21" t="inlineStr"/>
+      <c r="R20" s="21" t="inlineStr"/>
+      <c r="S20" s="22" t="inlineStr"/>
+      <c r="T20" s="21" t="inlineStr"/>
+      <c r="U20" s="21" t="inlineStr"/>
+      <c r="V20" s="21" t="inlineStr"/>
+      <c r="W20" s="22" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="B21" s="19" t="n"/>
+      <c r="C21" s="19" t="n"/>
+      <c r="D21" s="19" t="n"/>
+      <c r="E21" s="19" t="n"/>
+      <c r="F21" s="19" t="n"/>
+      <c r="G21" s="19" t="n"/>
+      <c r="H21" s="19" t="n"/>
+      <c r="I21" s="19" t="n"/>
+      <c r="J21" s="19" t="n"/>
+      <c r="K21" s="19" t="n"/>
+      <c r="L21" s="19" t="n"/>
+      <c r="M21" s="19" t="n"/>
+      <c r="N21" s="19" t="n"/>
+      <c r="O21" s="19" t="n"/>
+      <c r="P21" s="19" t="n"/>
+      <c r="Q21" s="19" t="n"/>
+      <c r="R21" s="19" t="n"/>
+      <c r="S21" s="19" t="n"/>
+      <c r="T21" s="19" t="n"/>
+      <c r="U21" s="19" t="n"/>
+      <c r="V21" s="19" t="n"/>
+      <c r="W21" s="19" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="14">
